--- a/Tutorial-Data/Kinetics.xlsx
+++ b/Tutorial-Data/Kinetics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prajay\Documents\GitHub\CHE-3131\Tutorial-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{533BA19C-91EE-472F-9F9A-4D85677FCE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4590CAA6-0DEE-4F5E-8081-F058DE965602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34650" yWindow="2130" windowWidth="22980" windowHeight="12195" xr2:uid="{7884B099-EA0D-401C-9A29-FB8069A480E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7884B099-EA0D-401C-9A29-FB8069A480E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>time (ms)</t>
+    <t>time (s)</t>
   </si>
   <si>
     <r>
@@ -51,7 +51,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>μM</t>
+      <t>M</t>
     </r>
     <r>
       <rPr>
@@ -106,7 +106,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,10 +122,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,13 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962E6BA4-3DCC-4ED3-A467-BCF118AB9235}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -462,59 +461,67 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.12</v>
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>8.49</v>
+        <v>9.5000000000000005E-6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.62</v>
+      <c r="A3" s="1">
+        <v>1.1999999999999999E-4</v>
       </c>
       <c r="B3" s="1">
-        <v>8.09</v>
+        <v>8.49E-6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.96</v>
+      <c r="A4" s="1">
+        <v>6.2E-4</v>
       </c>
       <c r="B4" s="1">
-        <v>7.1</v>
+        <v>8.0900000000000005E-6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1.6</v>
+      <c r="A5" s="1">
+        <v>9.5999999999999992E-4</v>
       </c>
       <c r="B5" s="1">
-        <v>5.79</v>
+        <v>7.0999999999999998E-6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3.2</v>
+      <c r="A6" s="1">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B6" s="1">
-        <v>5.2</v>
+        <v>5.7899999999999996E-6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
+      <c r="A7" s="1">
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="B7" s="1">
-        <v>4.7699999999999996</v>
+        <v>5.2000000000000002E-6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5.75</v>
+      <c r="A8" s="1">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B8" s="1">
-        <v>3.95</v>
+        <v>4.7699999999999992E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5.7499999999999999E-3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.9500000000000003E-6</v>
       </c>
     </row>
   </sheetData>
@@ -523,18 +530,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,6 +772,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7EEBBA-D0F6-41CF-AEFE-E93379640B9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3766AE2-2AD4-406C-BBA1-1993559D32FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -777,14 +792,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="7536a214-bfc9-41e4-861e-7f267e2cb52c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7EEBBA-D0F6-41CF-AEFE-E93379640B9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
